--- a/Nature_NETS_NYPS_68Bus_original.xlsx
+++ b/Nature_NETS_NYPS_68Bus_original.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup H Drive\0 LYT temp\2020_12-xxxx Nature of Synchronization\script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6D2245-EFFE-47C4-921E-D3D82BAB4F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B40009-DA2B-451F-B00B-5C74AC3A6ADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3292,7 +3292,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Nature_NETS_NYPS_68Bus_original.xlsx
+++ b/Nature_NETS_NYPS_68Bus_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B40009-DA2B-451F-B00B-5C74AC3A6ADD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C286E6D-628E-4486-95E7-DF75805F8160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -748,6 +748,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
+        <f>5.45</f>
         <v>5.45</v>
       </c>
       <c r="F4" s="8">
@@ -3291,8 +3292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
